--- a/biology/Médecine/Protéine_d'adhésion_cellulaire/Protéine_d'adhésion_cellulaire.xlsx
+++ b/biology/Médecine/Protéine_d'adhésion_cellulaire/Protéine_d'adhésion_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_d%27adh%C3%A9sion_cellulaire</t>
+          <t>Protéine_d'adhésion_cellulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines d'adhésion cellulaire (ou CAM, acronyme de l'anglais cell adhesion molecule, signifiant « molécule d'adhésion cellulaire ») sont des protéines intervenant dans les mécanismes de liaison cellulaire. Elles font partie de la superfamille des immunoglobulines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_d%27adh%C3%A9sion_cellulaire</t>
+          <t>Protéine_d'adhésion_cellulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles possèdent un domaine cytosolique (intracellulaire), un domaine transmembranaire et un domaine extracellulaire constitué de domaine C2 (constant) répétitifs reliés entre eux par des ponts disulfures. L'extrémité N-terminale située en extracellulaire, lie les protéoglycanes et les intégrines. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_d%27adh%C3%A9sion_cellulaire</t>
+          <t>Protéine_d'adhésion_cellulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les CAM jouent un rôle dans l'interaction entre les leucocytes et les cellules endothéliale, entre les leucocytes et le tissu conjonctif ou encore entre les cellules endothéliales et le tissu conjonctif (important dans l'angiogenèse). Dans ce dernier cas 3 CAM joue un rôle important : les VCAM (Vascular CAM), les PECAM (Platelet CAM)et les ICAM (Intercellular CAM). Enfin il existe aussi des CAM qui jouent un rôle dans l'interaction entre les neurones et les fibres musculaires, les NCAM qui sont importantes dans le développement du système nerveux central.
 </t>
